--- a/Prog-poly/Cartas Sorte e Reves/Sorte Reves_Inglês.xlsx
+++ b/Prog-poly/Cartas Sorte e Reves/Sorte Reves_Inglês.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5EB11293-5164-4839-B24B-3DCAD114542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B52E6ECC-FF6F-48D4-9E73-ECFEA7C8B0F9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3BF63FD0-304D-43F8-A3A3-3432329933C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4662084B-2F38-4DE4-BD8B-325A15902E62}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SORTE" sheetId="6" r:id="rId1"/>
-    <sheet name="REVES" sheetId="5" r:id="rId2"/>
+    <sheet name=" LUCK" sheetId="6" r:id="rId1"/>
+    <sheet name=" SETBACK" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,115 +26,112 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
-    <t>Jogue os dados novamente.</t>
-  </si>
-  <si>
-    <t>O dia do seu casamento chegou, receba os presentes. Receba 50 de cada jogador!</t>
-  </si>
-  <si>
-    <t>Entre no camburão e vá para a cadeia!</t>
-  </si>
-  <si>
-    <t>Renovou a frota de carros da sua empresa pague 100.</t>
-  </si>
-  <si>
-    <t>Por não possuir a certificação ISO 20000 sua empresa perdeu um contrato de exportação de Software e teve prejuizo, pague 100.</t>
-  </si>
-  <si>
-    <t>Suas ações na bolsa de valores estão em alta receba 100.</t>
-  </si>
-  <si>
-    <t>Compra livre apresente este cartão a um jogador para comprar uma propriedade sem construção pelo valor indicado no tabuleiro. O jogador é obrigado a aceitar.</t>
-  </si>
-  <si>
-    <t>Seu livro será publicado por uma grande editora receba 50.</t>
-  </si>
-  <si>
-    <t>Recebeu uma herança inesperada receba 75.</t>
-  </si>
-  <si>
-    <t>Ganhou sozinho na loteria receba 80.</t>
-  </si>
-  <si>
-    <t>Sua empresa venceu uma licitação grande de desenvolvimento de Software receba 150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendeu a parte de sua empresa para um investidor! Receba 75. </t>
-  </si>
-  <si>
-    <t>Recebeu o prêmio de profissional do ano e ganhou um carro e  também receba 100.</t>
-  </si>
-  <si>
-    <t>Tirou primeiro lugar no campeonato de qualidade de Software! Receba 50.</t>
-  </si>
-  <si>
-    <t>Sua empresa ficou entre as 50 melhores empresas de Software do Brasil para se trabalhar, receba 75.</t>
-  </si>
-  <si>
-    <t>Sua empresa ganhou o 1 lugar entre as 50 melhores empresas de Software do Brasil para se trabalhar, receba 150.</t>
-  </si>
-  <si>
-    <t>Se tirou o número par da soma dos dados receba 100.</t>
-  </si>
-  <si>
-    <t>Os servidores estão ficando obsoletos e precisam ser trocados pague 75.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Um vírus de computador infectou o ambiente de desenvolvimento do projeto. Consequência atrasos no prazo de entrega pague 45. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você saiu de Férias com a família e gastou, pague 35. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seus funcionários entraram em greve pague 60. </t>
-  </si>
-  <si>
-    <t>Utilizou software falsificado e foi multado pague 100.</t>
-  </si>
-  <si>
-    <t>Atualizou os computadores da sua empresa pague 50.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Atualizou os Softwares da sua empresa pague 50. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Membro chave da equipe não estará disponível quando necessário. Consequência Atrasos no prazo de entrega pague 50.</t>
-  </si>
-  <si>
-    <t>Se tirou número ímpar nos dados pague 100.</t>
-  </si>
-  <si>
-    <t>Recursos do cliente não estarão disponíveis como planejado. Consequência falta de orçamento para honrar compromissos, pague 35.</t>
-  </si>
-  <si>
-    <t>Problema Falta de clareza no escopo resultará em várias mudanças, atrasando o prazo de entrega do Software, pague 45.</t>
-  </si>
-  <si>
-    <t>Você vai começar um curso de mba e ganhou um bom desconto para pagamento a vista, pague 20.</t>
-  </si>
-  <si>
-    <t>Um navio afundou com suas mercadorias importadas e não tinha Seguro Pague 40.</t>
-  </si>
-  <si>
-    <t>Habeas corpus utilize este cartão para se livrar da cadeia, pode ser utilizado 1 vez.</t>
-  </si>
-  <si>
-    <t>Va até o início e Receba 200.</t>
-  </si>
-  <si>
-    <t>Graças a sua empresa de programação o resultado final do projeto foi entregue dentro do custo e prazos, receba 50.</t>
-  </si>
-  <si>
-    <t>O empresa entregou antes do prazo e bem abaixo do custo estimado, e por causa disto vocês ganharam mais clientes, receba 100.</t>
-  </si>
-  <si>
-    <t>A tecnologia empregada é relativamente nova e pouco conhecida dos membros da equipe e acabou resultando em atraso na entrega do software, pague 30.</t>
-  </si>
-  <si>
-    <t>Computadores necessários para o projeto não serão entregues no prazo programado, causando atrasos e prejuízo pague 40.</t>
+    <t>Roll the dice again.</t>
+  </si>
+  <si>
+    <t>Your wedding day has arrived, receive the gifts. Receive 50 from each player!</t>
+  </si>
+  <si>
+    <t>Get in the van and go to jail!</t>
+  </si>
+  <si>
+    <t>Renewed your company's car fleet pay 100.</t>
+  </si>
+  <si>
+    <t>For not having the ISO 20000 certification, your company lost a software export contract and had a loss, pay 100.</t>
+  </si>
+  <si>
+    <t>Your stocks on the stock market are up, get 100.</t>
+  </si>
+  <si>
+    <t>Free Buy Present this card to a player to buy an unbuilt property for the amount indicated on the board. The player is obliged to accept.</t>
+  </si>
+  <si>
+    <t>Your book will be published by a major publisher earn 50.</t>
+  </si>
+  <si>
+    <t>Received an unexpected inheritance receive 75.</t>
+  </si>
+  <si>
+    <t>Won the lottery alone receive 80.</t>
+  </si>
+  <si>
+    <t>Your company won a large software development bid receive 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sold part of your company to an investor! Get 75.</t>
+  </si>
+  <si>
+    <t>Received the professional of the year award and won a car and also receive 100.</t>
+  </si>
+  <si>
+    <t>First place in the Software Quality Championship! Get 50.</t>
+  </si>
+  <si>
+    <t>Your company was among the 50 best software companies in Brazil to work for, receive 75.</t>
+  </si>
+  <si>
+    <t>Your company won 1st place among the 50 best software companies in Brazil to work for, receive 150.</t>
+  </si>
+  <si>
+    <t>If you took the even number from the sum of the dice, get 100.</t>
+  </si>
+  <si>
+    <t>Servers are getting stale and need to be replaced pay 75.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A computer virus has infected the project's development environment. Consequence delays in delivery time pay 45.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You went on a Family Vacation and spent, pay 35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your employees went on strike pay 60.</t>
+  </si>
+  <si>
+    <t>Used counterfeit software and was fined 100.</t>
+  </si>
+  <si>
+    <t>Upgraded your company's computers pay 50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Updated your company's software pay 50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Key team member will not be available when needed. Consequence Late delivery pay 50.</t>
+  </si>
+  <si>
+    <t>If you rolled an odd number on the dice pay 100.</t>
+  </si>
+  <si>
+    <t>Client features will not be available as planned. Consequence lack of budget to honor commitments, pay 35.</t>
+  </si>
+  <si>
+    <t>Issue Lack of clarity on scope will result in multiple changes delaying the delivery time for the Software, pay 45.</t>
+  </si>
+  <si>
+    <t>You will start an mba course and get a good discount for cash payment, pay 20.</t>
+  </si>
+  <si>
+    <t>A ship sank with its imported goods and did not have Pay 40 Insurance.</t>
+  </si>
+  <si>
+    <t>Habeas corpus use this card to get out of jail, it can be used 1 time.</t>
+  </si>
+  <si>
+    <t>Go to the beginning and Receive 200.</t>
+  </si>
+  <si>
+    <t>Thanks to your programming company, the final result of the project was delivered within the cost and deadlines, receive 50.</t>
+  </si>
+  <si>
+    <t>The company delivered ahead of schedule and well below the estimated cost, and because of that you gained more customers, get 100.</t>
+  </si>
+  <si>
+    <t>The technology employed is relatively new and little known to team members and ended up resulting in late delivery of the software, pay 30.</t>
+  </si>
+  <si>
+    <t>Computers needed for the project will not be delivered on time, causing delays and loss pay 40.</t>
   </si>
   <si>
     <t>LUCK</t>
@@ -312,17 +309,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,12 +346,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -361,8 +358,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,15 +712,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841578E3-FD42-407D-8A16-3D5DFBCEDAD3}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="10" width="9.140625" style="18"/>
-    <col min="13" max="13" width="0.7109375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="18"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="13" max="13" width="0.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -744,264 +742,264 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="H2" s="9"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="7"/>
       <c r="K12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="19"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="9"/>
+      <c r="D13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="G13" s="6" t="s">
+      <c r="E13" s="9"/>
+      <c r="G13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="K13" s="6" t="s">
+      <c r="H13" s="9"/>
+      <c r="K13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="N13" s="6" t="s">
+      <c r="L13" s="9"/>
+      <c r="N13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>36</v>
@@ -1017,96 +1015,96 @@
         <v>36</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="9"/>
+      <c r="D24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="9"/>
+      <c r="G24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
+      <c r="H24" s="9"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -1122,93 +1120,93 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="D35" s="8" t="s">
+      <c r="B35" s="9"/>
+      <c r="D35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="G35" s="6" t="s">
+      <c r="E35" s="11"/>
+      <c r="G35" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1228,82 +1226,82 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="9"/>
+      <c r="D46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="G46" s="6" t="s">
+      <c r="E46" s="9"/>
+      <c r="G46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="11"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1312,105 +1310,115 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="13"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="D57" s="8" t="s">
+      <c r="B57" s="9"/>
+      <c r="D57" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="G57" s="6" t="s">
+      <c r="E57" s="11"/>
+      <c r="G57" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G2:H10"/>
-    <mergeCell ref="D2:E10"/>
-    <mergeCell ref="A2:B10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K13:L21"/>
+    <mergeCell ref="N13:O21"/>
+    <mergeCell ref="D57:E65"/>
+    <mergeCell ref="G57:H65"/>
+    <mergeCell ref="A35:B43"/>
+    <mergeCell ref="D35:E43"/>
+    <mergeCell ref="G35:H43"/>
+    <mergeCell ref="A46:B54"/>
+    <mergeCell ref="D46:E54"/>
+    <mergeCell ref="G46:H54"/>
+    <mergeCell ref="A57:B65"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="G34:H34"/>
@@ -1424,25 +1432,15 @@
     <mergeCell ref="G24:H32"/>
     <mergeCell ref="G20:H21"/>
     <mergeCell ref="D13:E21"/>
-    <mergeCell ref="A57:B65"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A35:B43"/>
-    <mergeCell ref="D35:E43"/>
-    <mergeCell ref="G35:H43"/>
-    <mergeCell ref="A46:B54"/>
-    <mergeCell ref="D46:E54"/>
-    <mergeCell ref="G46:H54"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K13:L21"/>
-    <mergeCell ref="N13:O21"/>
-    <mergeCell ref="D57:E65"/>
-    <mergeCell ref="G57:H65"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G2:H10"/>
+    <mergeCell ref="D2:E10"/>
+    <mergeCell ref="A2:B10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1451,202 +1449,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED732DA-219E-43C7-8DB3-0FD66F902101}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="6" max="6" width="0.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="17"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="9"/>
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="G13" s="6" t="s">
+      <c r="E13" s="9"/>
+      <c r="G13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1673,82 +1676,82 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="9"/>
+      <c r="D24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="9"/>
+      <c r="G24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -1763,94 +1766,94 @@
         <v>39</v>
       </c>
       <c r="B34" s="15"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="15"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="D35" s="6" t="s">
+      <c r="B35" s="9"/>
+      <c r="D35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="G35" s="6" t="s">
+      <c r="E35" s="9"/>
+      <c r="G35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -1885,82 +1888,82 @@
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="D47" s="6" t="s">
+      <c r="B47" s="9"/>
+      <c r="D47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="G47" s="6" t="s">
+      <c r="E47" s="9"/>
+      <c r="G47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1978,106 +1981,85 @@
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="D58" s="6" t="s">
+      <c r="B58" s="9"/>
+      <c r="D58" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="G58" s="6" t="s">
+      <c r="E58" s="9"/>
+      <c r="G58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="7"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A47:B55"/>
-    <mergeCell ref="D47:E55"/>
-    <mergeCell ref="G47:H55"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G13:H21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A35:B43"/>
-    <mergeCell ref="D35:E43"/>
-    <mergeCell ref="G35:H43"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E8"/>
-    <mergeCell ref="D9:E10"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E66"/>
     <mergeCell ref="G57:H57"/>
@@ -2094,6 +2076,27 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="D13:E21"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="G13:H21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A35:B43"/>
+    <mergeCell ref="D35:E43"/>
+    <mergeCell ref="G35:H43"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A47:B55"/>
+    <mergeCell ref="D47:E55"/>
+    <mergeCell ref="G47:H55"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
